--- a/tests/data/truck_availability_test.xlsx
+++ b/tests/data/truck_availability_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20169619\Documents\TUe\Y4\Q1\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bestanden\1-SEP TRUCK\sep-2021_q1-group-2\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36758693-DB44-44BD-9F8D-FCB688A39B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12612" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -53,9 +54,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Truck Hierarchy </t>
-  </si>
-  <si>
     <t>Truck Use Cost</t>
   </si>
   <si>
@@ -423,12 +421,15 @@
   </si>
   <si>
     <t>Driver_Tin Tin</t>
+  </si>
+  <si>
+    <t>Truck Hierarchy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
@@ -518,7 +519,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -863,29 +864,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,45 +912,45 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -964,30 +965,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -1002,30 +1003,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -1040,33 +1041,33 @@
         <v>0.25</v>
       </c>
       <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -1081,30 +1082,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
@@ -1119,30 +1120,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -1157,30 +1158,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="5">
         <v>3</v>
@@ -1195,30 +1196,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -1233,30 +1234,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -1271,30 +1272,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
@@ -1309,30 +1310,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -1347,30 +1348,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -1385,30 +1386,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5">
         <v>3</v>
@@ -1423,30 +1424,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="5">
         <v>3</v>
@@ -1461,30 +1462,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
@@ -1499,30 +1500,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5">
         <v>3</v>
@@ -1537,30 +1538,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="5">
         <v>3</v>
@@ -1575,30 +1576,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4">
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="5">
         <v>2</v>
@@ -1613,30 +1614,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4">
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -1651,30 +1652,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="5">
         <v>3</v>
@@ -1689,30 +1690,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="4">
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="5">
         <v>3</v>
@@ -1727,30 +1728,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4">
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="5">
         <v>2</v>
@@ -1765,30 +1766,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4">
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="5">
         <v>2</v>
@@ -1803,30 +1804,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4">
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="5">
         <v>2</v>
@@ -1841,30 +1842,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="4">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="5">
         <v>2</v>
@@ -1879,30 +1880,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4">
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="5">
         <v>3</v>
@@ -1917,30 +1918,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="4">
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="5">
         <v>3</v>
@@ -1955,30 +1956,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="4">
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="5">
         <v>3</v>
@@ -1993,30 +1994,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="4">
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="5">
         <v>3</v>
@@ -2031,30 +2032,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="4">
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="5">
         <v>2</v>
@@ -2069,30 +2070,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="4">
         <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="5">
         <v>2</v>
@@ -2107,30 +2108,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="4">
         <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="I33" s="5">
         <v>2</v>
@@ -2145,30 +2146,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="4">
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="I34" s="5">
         <v>2</v>
@@ -2183,30 +2184,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4">
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="I35" s="5">
         <v>2</v>
@@ -2221,30 +2222,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="4">
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="I36" s="5">
         <v>3</v>
@@ -2259,144 +2260,144 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4">
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="5">
+        <v>3</v>
+      </c>
+      <c r="J37" s="5">
+        <v>15</v>
+      </c>
+      <c r="K37" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="I37" s="5">
-        <v>3</v>
-      </c>
-      <c r="J37" s="5">
-        <v>15</v>
-      </c>
-      <c r="K37" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="B38" s="4">
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="5">
+        <v>3</v>
+      </c>
+      <c r="J38" s="5">
+        <v>15</v>
+      </c>
+      <c r="K38" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="I38" s="5">
-        <v>3</v>
-      </c>
-      <c r="J38" s="5">
-        <v>15</v>
-      </c>
-      <c r="K38" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="B39" s="4">
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="5">
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <v>15</v>
+      </c>
+      <c r="K39" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="5">
-        <v>3</v>
-      </c>
-      <c r="J39" s="5">
-        <v>15</v>
-      </c>
-      <c r="K39" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="B40" s="4">
         <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="I40" s="5">
         <v>3</v>
@@ -2411,106 +2412,106 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4">
         <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="5">
+        <v>3</v>
+      </c>
+      <c r="J41" s="5">
+        <v>15</v>
+      </c>
+      <c r="K41" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="I41" s="5">
-        <v>3</v>
-      </c>
-      <c r="J41" s="5">
-        <v>15</v>
-      </c>
-      <c r="K41" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="B42" s="4">
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="5">
+        <v>3</v>
+      </c>
+      <c r="J42" s="5">
+        <v>15</v>
+      </c>
+      <c r="K42" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="I42" s="5">
-        <v>3</v>
-      </c>
-      <c r="J42" s="5">
-        <v>15</v>
-      </c>
-      <c r="K42" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="B43" s="4">
         <v>42</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="I43" s="5">
         <v>3</v>
@@ -2525,30 +2526,30 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="4">
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" s="5">
         <v>3</v>
@@ -2563,220 +2564,220 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="4">
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="5">
+        <v>3</v>
+      </c>
+      <c r="J45" s="5">
+        <v>15</v>
+      </c>
+      <c r="K45" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="5">
-        <v>3</v>
-      </c>
-      <c r="J45" s="5">
-        <v>15</v>
-      </c>
-      <c r="K45" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="B46" s="4">
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="5">
+        <v>3</v>
+      </c>
+      <c r="J46" s="5">
+        <v>15</v>
+      </c>
+      <c r="K46" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" s="5">
-        <v>3</v>
-      </c>
-      <c r="J46" s="5">
-        <v>15</v>
-      </c>
-      <c r="K46" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L46" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="B47" s="4">
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3</v>
+      </c>
+      <c r="J47" s="5">
+        <v>15</v>
+      </c>
+      <c r="K47" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="5">
-        <v>3</v>
-      </c>
-      <c r="J47" s="5">
-        <v>15</v>
-      </c>
-      <c r="K47" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="B48" s="4">
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="5">
+        <v>3</v>
+      </c>
+      <c r="J48" s="5">
+        <v>15</v>
+      </c>
+      <c r="K48" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="5">
-        <v>3</v>
-      </c>
-      <c r="J48" s="5">
-        <v>15</v>
-      </c>
-      <c r="K48" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="B49" s="4">
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I49" s="5">
+        <v>3</v>
+      </c>
+      <c r="J49" s="5">
+        <v>15</v>
+      </c>
+      <c r="K49" s="6">
+        <v>44081</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="5">
-        <v>3</v>
-      </c>
-      <c r="J49" s="5">
-        <v>15</v>
-      </c>
-      <c r="K49" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="B50" s="4">
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="G50" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I50" s="5">
         <v>3</v>
@@ -2792,7 +2793,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J50"/>
+  <autoFilter ref="A1:J50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
